--- a/Project 1.xlsx
+++ b/Project 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE357995-3C1B-407E-8DE9-E16E325531EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BADB2F-2090-4F17-9EBE-94E147686D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CDFF26D-42AF-4503-9B5B-A02E4BBF6DA8}"/>
+    <workbookView xWindow="1515" yWindow="0" windowWidth="27285" windowHeight="15480" xr2:uid="{7CDFF26D-42AF-4503-9B5B-A02E4BBF6DA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S.L</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Basic Salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Income </t>
   </si>
   <si>
     <t>PF</t>
@@ -81,14 +78,20 @@
     <t>Selim Iqbal</t>
   </si>
   <si>
-    <t>Prepare a Salary Sheet and show in visualy by MS Excel</t>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>Salary Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,20 +100,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,15 +161,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -151,6 +193,1492 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Md.Asif Iqbal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rita Begum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amitav Paul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Md.Abdur Rahman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Md.Jaynul Abedin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gautom Saha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selim Iqbal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Insentive Bonus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Festibal Bonus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Convance Allowance</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Total Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8E67-4D83-852C-DD492F8AC290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="278498575"/>
+        <c:axId val="278499055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="278498575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278499055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="278499055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278498575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1042987</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38ED0F4-C05D-9AA7-1321-103849BAB53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,287 +1978,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9DDE61-4F0A-4314-BA2E-7910C300FD75}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="B4" sqref="B4:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="5" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>(D5*2.5)</f>
+        <v>62500</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(D5*2)</f>
+        <v>50000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(D5*10%)</f>
+        <v>2500</v>
+      </c>
+      <c r="I5" s="1">
+        <f>D5*10%</f>
+        <v>2500</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5+E5+F5+G5-H5-I5</f>
+        <v>157500</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E11" si="0">(D6*2.5)</f>
+        <v>112500</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F11" si="1">(D6*2)</f>
+        <v>90000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H11" si="2">(D6*10%)</f>
+        <v>4500</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I11" si="3">D6*10%</f>
+        <v>4500</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J11" si="4">D6+E6+F6+G6-H6-I6</f>
+        <v>283500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>25000</v>
-      </c>
-      <c r="D4">
-        <f>(C4*2.5)</f>
-        <v>62500</v>
-      </c>
-      <c r="E4">
-        <f>(C4*2)</f>
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>25000</v>
-      </c>
-      <c r="G4">
-        <f>(C4*10%)</f>
-        <v>2500</v>
-      </c>
-      <c r="H4">
-        <f>SUM(C4:G4)</f>
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>45000</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D10" si="0">(C5*2.5)</f>
-        <v>112500</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E10" si="1">(C5*2)</f>
-        <v>90000</v>
-      </c>
-      <c r="F5">
-        <v>45000</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G10" si="2">(C5*10%)</f>
-        <v>4500</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H10" si="3">SUM(C5:G5)</f>
-        <v>297000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="D7" s="1">
         <v>65000</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>162500</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="1">
         <v>65000</v>
       </c>
-      <c r="G6">
+      <c r="H7" s="1">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="H6">
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>429000</v>
+        <v>6500</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>409500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
         <v>80000</v>
       </c>
-      <c r="D7">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="1">
         <v>80000</v>
       </c>
-      <c r="G7">
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="H7">
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>528000</v>
+        <v>8000</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>504000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
         <v>20000</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="F8">
+      <c r="G9" s="1">
         <v>20000</v>
       </c>
-      <c r="G8">
+      <c r="H9" s="1">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H8">
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>132000</v>
+        <v>2000</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>126000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
         <v>12000</v>
       </c>
-      <c r="D9">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F9">
+      <c r="G10" s="1">
         <v>12000</v>
       </c>
-      <c r="G9">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="H9">
+      <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>79200</v>
+        <v>1200</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>75600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>75000</v>
       </c>
-      <c r="D10">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>187500</v>
       </c>
-      <c r="E10">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="F10">
+      <c r="G11" s="1">
         <v>75000</v>
       </c>
-      <c r="G10">
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="H10">
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>495000</v>
+        <v>7500</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>472500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="J2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>